--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.1037885598079</v>
+        <v>245.6052495462703</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.1050285154798</v>
+        <v>336.0479377679397</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.799566144976</v>
+        <v>303.9759942337106</v>
       </c>
       <c r="AD2" t="n">
-        <v>209103.7885598079</v>
+        <v>245605.2495462703</v>
       </c>
       <c r="AE2" t="n">
-        <v>286105.0285154798</v>
+        <v>336047.9377679398</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.078464859973019e-06</v>
+        <v>5.695965977470492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9365234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>258799.5661449761</v>
+        <v>303975.9942337106</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.8993039674492</v>
+        <v>148.2905051948052</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.5244937397066</v>
+        <v>202.8976113228117</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.3453139863574</v>
+        <v>183.5333480668063</v>
       </c>
       <c r="AD3" t="n">
-        <v>123899.3039674492</v>
+        <v>148290.5051948052</v>
       </c>
       <c r="AE3" t="n">
-        <v>169524.4937397066</v>
+        <v>202897.6113228117</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.286714700835292e-06</v>
+        <v>7.931544520308222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.544921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>153345.3139863574</v>
+        <v>183533.3480668063</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0385864008755</v>
+        <v>173.4807593202891</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.2894131488559</v>
+        <v>237.3640283328608</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.6968796834885</v>
+        <v>214.7103386113473</v>
       </c>
       <c r="AD2" t="n">
-        <v>150038.5864008755</v>
+        <v>173480.7593202891</v>
       </c>
       <c r="AE2" t="n">
-        <v>205289.4131488559</v>
+        <v>237364.0283328608</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.872513290212669e-06</v>
+        <v>7.381607985410139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.059244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185696.8796834885</v>
+        <v>214710.3386113473</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.9241921969789</v>
+        <v>143.451616462413</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.0855704457975</v>
+        <v>196.2768302824516</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.4254738980404</v>
+        <v>177.5444450766115</v>
       </c>
       <c r="AD3" t="n">
-        <v>119924.1921969789</v>
+        <v>143451.616462413</v>
       </c>
       <c r="AE3" t="n">
-        <v>164085.5704457975</v>
+        <v>196276.8302824516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.30270669058697e-06</v>
+        <v>8.201622999302908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.653971354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>148425.4738980404</v>
+        <v>177544.4450766115</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.8886933426245</v>
+        <v>152.9009191795776</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.4559287497994</v>
+        <v>209.2057831338842</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.2334681814558</v>
+        <v>189.2394768138067</v>
       </c>
       <c r="AD2" t="n">
-        <v>131888.6933426245</v>
+        <v>152900.9191795776</v>
       </c>
       <c r="AE2" t="n">
-        <v>180455.9287497994</v>
+        <v>209205.7831338842</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.891997679297796e-06</v>
+        <v>8.288936509691467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5068359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>163233.4681814558</v>
+        <v>189239.4768138067</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.9406393108447</v>
+        <v>149.7989800572245</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.0540270476698</v>
+        <v>204.9615731787869</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.3471163961591</v>
+        <v>185.4003283000366</v>
       </c>
       <c r="AD2" t="n">
-        <v>127940.6393108447</v>
+        <v>149798.9800572245</v>
       </c>
       <c r="AE2" t="n">
-        <v>175054.0270476698</v>
+        <v>204961.573178787</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167323540112562e-06</v>
+        <v>8.461107562123175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.026692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>158347.1163961591</v>
+        <v>185400.3283000366</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.6800399976477</v>
+        <v>169.7731061001855</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.798834142009</v>
+        <v>232.2910536270017</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.2531208485229</v>
+        <v>210.1215214914491</v>
       </c>
       <c r="AD2" t="n">
-        <v>149680.0399976477</v>
+        <v>169773.1061001855</v>
       </c>
       <c r="AE2" t="n">
-        <v>204798.834142009</v>
+        <v>232291.0536270017</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.552007302404747e-06</v>
+        <v>7.909626470035043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.128580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185253.1208485229</v>
+        <v>210121.5214914491</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.2509954046471</v>
+        <v>186.9202047138099</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.3672140381541</v>
+        <v>255.7524704267523</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0493606282706</v>
+        <v>231.3438136001442</v>
       </c>
       <c r="AD2" t="n">
-        <v>163250.9954046471</v>
+        <v>186920.2047138099</v>
       </c>
       <c r="AE2" t="n">
-        <v>223367.2140381541</v>
+        <v>255752.4704267523</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649257582990149e-06</v>
+        <v>6.89988365536413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.269205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202049.3606282707</v>
+        <v>231343.8136001442</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8744168143403</v>
+        <v>144.6288774695236</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.3857096882222</v>
+        <v>197.8876107294697</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6015296759254</v>
+        <v>179.0014948985112</v>
       </c>
       <c r="AD3" t="n">
-        <v>120874.4168143402</v>
+        <v>144628.8774695236</v>
       </c>
       <c r="AE3" t="n">
-        <v>165385.7096882222</v>
+        <v>197887.6107294697</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.302151641313449e-06</v>
+        <v>8.134352020301538e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.621419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>149601.5296759254</v>
+        <v>179001.4948985112</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.9124151894885</v>
+        <v>187.3111821438844</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.062733066241</v>
+        <v>256.2874229952869</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.4420090684112</v>
+        <v>231.8277110463487</v>
       </c>
       <c r="AD2" t="n">
-        <v>157912.4151894885</v>
+        <v>187311.1821438844</v>
       </c>
       <c r="AE2" t="n">
-        <v>216062.733066241</v>
+        <v>256287.4229952869</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.278575688576231e-06</v>
+        <v>7.516353605035396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.686848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195442.0090684112</v>
+        <v>231827.7110463487</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.4761078068277</v>
+        <v>141.2666891401414</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.1042374982191</v>
+        <v>193.2873163279306</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.6332365861601</v>
+        <v>174.8402461380998</v>
       </c>
       <c r="AD2" t="n">
-        <v>118476.1078068277</v>
+        <v>141266.6891401414</v>
       </c>
       <c r="AE2" t="n">
-        <v>162104.2374982191</v>
+        <v>193287.3163279306</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.241657475256842e-06</v>
+        <v>8.313590032076283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.818359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>146633.2365861601</v>
+        <v>174840.2461380998</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.9159435111257</v>
+        <v>140.7065248444393</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.3377959961354</v>
+        <v>192.5208748258469</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.9399431853276</v>
+        <v>174.1469527372674</v>
       </c>
       <c r="AD3" t="n">
-        <v>117915.9435111257</v>
+        <v>140706.5248444394</v>
       </c>
       <c r="AE3" t="n">
-        <v>161337.7959961354</v>
+        <v>192520.8748258469</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.263649927913369e-06</v>
+        <v>8.356694935348827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.798828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>145939.9431853276</v>
+        <v>174146.9527372674</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.9371901490023</v>
+        <v>152.2289446810111</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.4175518691565</v>
+        <v>208.2863579795234</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5805083224026</v>
+        <v>188.4078003057565</v>
       </c>
       <c r="AD2" t="n">
-        <v>128937.1901490023</v>
+        <v>152228.9446810111</v>
       </c>
       <c r="AE2" t="n">
-        <v>176417.5518691565</v>
+        <v>208286.3579795234</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048823172689109e-06</v>
+        <v>7.784684789516574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159580.5083224026</v>
+        <v>188407.8003057565</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8398960524568</v>
+        <v>142.1316505844656</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.6019886250933</v>
+        <v>194.4707947354602</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0834830440836</v>
+        <v>175.9107750274376</v>
       </c>
       <c r="AD3" t="n">
-        <v>118839.8960524568</v>
+        <v>142131.6505844656</v>
       </c>
       <c r="AE3" t="n">
-        <v>162601.9886250933</v>
+        <v>194470.7947354602</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303111693685453e-06</v>
+        <v>8.273606112359662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.688151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>147083.4830440836</v>
+        <v>175910.7750274375</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.0996623101836</v>
+        <v>228.2928877737201</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.8392328116495</v>
+        <v>312.3604006232512</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.7542253293627</v>
+        <v>282.5491623884363</v>
       </c>
       <c r="AD2" t="n">
-        <v>192099.6623101836</v>
+        <v>228292.8877737201</v>
       </c>
       <c r="AE2" t="n">
-        <v>262839.2328116496</v>
+        <v>312360.4006232512</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261653620958096e-06</v>
+        <v>6.076213311080687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.695638020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>237754.2253293627</v>
+        <v>282549.1623884363</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.691012742874</v>
+        <v>146.8767236216128</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.8712563801971</v>
+        <v>200.9632130027298</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.8498592801057</v>
+        <v>181.7835660074473</v>
       </c>
       <c r="AD3" t="n">
-        <v>122691.012742874</v>
+        <v>146876.7236216128</v>
       </c>
       <c r="AE3" t="n">
-        <v>167871.2563801971</v>
+        <v>200963.2130027298</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297831200285465e-06</v>
+        <v>8.00653355100331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.564453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>151849.8592801057</v>
+        <v>181783.5660074473</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.0407079703844</v>
+        <v>139.2816749486022</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.140260116627</v>
+        <v>190.5713323384226</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.8566984494069</v>
+        <v>172.3834718486421</v>
       </c>
       <c r="AD2" t="n">
-        <v>117040.7079703844</v>
+        <v>139281.6749486022</v>
       </c>
       <c r="AE2" t="n">
-        <v>160140.260116627</v>
+        <v>190571.3323384226</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20629243735888e-06</v>
+        <v>8.431502064892464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9404296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>144856.6984494069</v>
+        <v>172383.4718486421</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.67833366838</v>
+        <v>150.8835803361032</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.4316171293129</v>
+        <v>206.4455711295353</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.4977926173795</v>
+        <v>186.7426955691701</v>
       </c>
       <c r="AD2" t="n">
-        <v>129678.33366838</v>
+        <v>150883.5803361032</v>
       </c>
       <c r="AE2" t="n">
-        <v>177431.6171293129</v>
+        <v>206445.5711295353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01258759608361e-06</v>
+        <v>8.394584189876698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3017578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>160497.7926173795</v>
+        <v>186742.6955691701</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1965474798881</v>
+        <v>164.907362233998</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.6136365957406</v>
+        <v>225.6335282078181</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.0898088224521</v>
+        <v>204.0993809543746</v>
       </c>
       <c r="AD2" t="n">
-        <v>134196.5474798881</v>
+        <v>164907.362233998</v>
       </c>
       <c r="AE2" t="n">
-        <v>183613.6365957406</v>
+        <v>225633.5282078181</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.757739661780934e-06</v>
+        <v>8.168784045382313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166089.8088224521</v>
+        <v>204099.3809543746</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5413724619691</v>
+        <v>221.5055409715592</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.1294030762275</v>
+        <v>303.0736532919316</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.1619653090362</v>
+        <v>274.1487291883831</v>
       </c>
       <c r="AD2" t="n">
-        <v>183541.3724619691</v>
+        <v>221505.5409715592</v>
       </c>
       <c r="AE2" t="n">
-        <v>251129.4030762275</v>
+        <v>303073.6532919316</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.874145837488887e-06</v>
+        <v>6.836233371564904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.668294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227161.9653090363</v>
+        <v>274148.7291883831</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.2607482861705</v>
+        <v>144.3072608884773</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.9143054517218</v>
+        <v>197.4475607345603</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.0796770016456</v>
+        <v>178.6034426575017</v>
       </c>
       <c r="AD2" t="n">
-        <v>121260.7482861705</v>
+        <v>144307.2608884774</v>
       </c>
       <c r="AE2" t="n">
-        <v>165914.3054517218</v>
+        <v>197447.5607345602</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.200619143073323e-06</v>
+        <v>8.151629914498823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.815104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150079.6770016456</v>
+        <v>178603.4426575017</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5061219833519</v>
+        <v>141.5526345856588</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.1453042186716</v>
+        <v>193.6785595015101</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.6703839564501</v>
+        <v>175.1941496123062</v>
       </c>
       <c r="AD3" t="n">
-        <v>118506.1219833519</v>
+        <v>141552.6345856588</v>
       </c>
       <c r="AE3" t="n">
-        <v>162145.3042186716</v>
+        <v>193678.5595015101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.287081624497235e-06</v>
+        <v>8.319417120634651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.738606770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146670.3839564501</v>
+        <v>175194.1496123062</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.2032110765251</v>
+        <v>201.0916211387531</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.4572510487216</v>
+        <v>275.1424275781183</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.317471299591</v>
+        <v>248.8832204549658</v>
       </c>
       <c r="AD2" t="n">
-        <v>177203.2110765251</v>
+        <v>201091.6211387531</v>
       </c>
       <c r="AE2" t="n">
-        <v>242457.2510487216</v>
+        <v>275142.4275781183</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448492101161204e-06</v>
+        <v>6.470723781229191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219317.471299591</v>
+        <v>248883.2204549658</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.0255945276492</v>
+        <v>145.9992559358978</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.960801821947</v>
+        <v>199.762623003993</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.0262972270638</v>
+        <v>180.6975586331509</v>
       </c>
       <c r="AD3" t="n">
-        <v>122025.5945276492</v>
+        <v>145999.2559358978</v>
       </c>
       <c r="AE3" t="n">
-        <v>166960.801821947</v>
+        <v>199762.623003993</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.293628883025312e-06</v>
+        <v>8.056531871367529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.597005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>151026.2972270638</v>
+        <v>180697.5586331509</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8934760961346</v>
+        <v>282.6091000577329</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.1281049971506</v>
+        <v>386.6782385325502</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.1937735729713</v>
+        <v>349.7742101533191</v>
       </c>
       <c r="AD2" t="n">
-        <v>236893.4760961346</v>
+        <v>282609.1000577328</v>
       </c>
       <c r="AE2" t="n">
-        <v>324128.1049971505</v>
+        <v>386678.2385325502</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259451690735459e-06</v>
+        <v>5.650717209798753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7841796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>293193.7735729713</v>
+        <v>349774.2101533191</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7259786710538</v>
+        <v>150.2686212737188</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1285630070346</v>
+        <v>205.6041570103022</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3191001516832</v>
+        <v>185.9815848325443</v>
       </c>
       <c r="AD2" t="n">
-        <v>128725.9786710538</v>
+        <v>150268.6212737188</v>
       </c>
       <c r="AE2" t="n">
-        <v>176128.5630070347</v>
+        <v>205604.1570103022</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096654970375819e-06</v>
+        <v>8.436173814116586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.152018229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159319.1001516832</v>
+        <v>185981.5848325443</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.3378082381573</v>
+        <v>139.8604228957041</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.5467658101323</v>
+        <v>191.3632008122043</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.2244078100585</v>
+        <v>173.0997655066808</v>
       </c>
       <c r="AD2" t="n">
-        <v>117337.8082381573</v>
+        <v>139860.4228957041</v>
       </c>
       <c r="AE2" t="n">
-        <v>160546.7658101323</v>
+        <v>191363.2008122043</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.242948835434237e-06</v>
+        <v>8.406062819869761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145224.4078100585</v>
+        <v>173099.7655066808</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.8593546976555</v>
+        <v>140.3819693552023</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.2603686850233</v>
+        <v>192.0768036870954</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.8699054281181</v>
+        <v>173.7452631247404</v>
       </c>
       <c r="AD3" t="n">
-        <v>117859.3546976555</v>
+        <v>140381.9693552023</v>
       </c>
       <c r="AE3" t="n">
-        <v>161260.3686850233</v>
+        <v>192076.8036870954</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241640742971869e-06</v>
+        <v>8.403471247866575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>145869.9054281181</v>
+        <v>173745.2631247404</v>
       </c>
     </row>
   </sheetData>
